--- a/dq_models/TMDB_movie_dataset_v11.xlsx
+++ b/dq_models/TMDB_movie_dataset_v11.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documentos\GitHub\context-aware-dq-management-in-data-lakes\dq_models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2FD825-704A-42FA-81BD-B86A9ED8F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="(Landing Zone) TMDB_movie_datas" sheetId="1" r:id="rId4"/>
+    <sheet name="(Landing Zone) TMDB_movie_datas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -34,68 +43,10 @@
     <t>Applied DQ Method</t>
   </si>
   <si>
-    <t>ID: D1
-Name: Exactitud
-Semantic: Concierne la correctitud y la precisión con que los datos del mundo real son representados en un sistema de información 
-Suggested by: {BR3}</t>
-  </si>
-  <si>
-    <t>ID: D1F1
-Name: Exactitud 
-Sintáctica
-Semantic: Indica qué tan libre de errores sintácticos están los datos
-Represents: {BR3}</t>
-  </si>
-  <si>
-    <t>ID: M1
-Name: FormatoFecha
-Purpose: Mide si el formato de un dato que representa una fecha es correcto, relativo a un formato especificado.
-No se mide para datos faltantes.
-Influenced by: {BR3}
-Granularity: celda
-Result domain: {0,1}</t>
-  </si>
-  <si>
-    <t>ID: ME1 
-Name: verificarFormatoFecha
-Uses: {BR3} 
-Input data types: String, String
-Output data types: Boolean 
-Algorithm: verificarFormatoFecha(dato, formato)</t>
-  </si>
-  <si>
     <t>ID: AME38
 Applied to: TMDB_movie_dataset_v11.csv, “release_date”</t>
   </si>
   <si>
-    <t>ID: D2
-Name: Completitud
-Semantic: Concierne la proporción del mundo real que está representado en el SI
-Suggested by: {OM1}</t>
-  </si>
-  <si>
-    <t>ID: D2F1
-Name: Densidad
-Semantic: Indica qué cantidad de registros con datos faltantes hay
-Represents: {OM1}</t>
-  </si>
-  <si>
-    <t>ID: M4
-Name: RatioNoVacios
-Purpose: Mide el grado de valores no faltantes en una columna. Lo que se considera faltante depende del método.
-Influenced by: {OM1}
-Granularity: columna
-Result domain: [0..1]</t>
-  </si>
-  <si>
-    <t>ID: ME4 
-Name: ratioNoNulos
-Uses: {OM1} 
-Input data types: Object[]
-Output data types: Float
-Algorithm: ratioNoNulos(columna)</t>
-  </si>
-  <si>
     <t>ID: AME39
 Applied to: TMDB_movie_dataset_v11.csv, “title”</t>
   </si>
@@ -120,131 +71,20 @@
 Applied to: TMDB_movie_dataset_v11.csv, “production_countries”</t>
   </si>
   <si>
-    <t>ID: D3
-Name: Consistencia
-Semantic: Concierne la consistencia entre los registros del SI
-Suggested by: {BR1}</t>
-  </si>
-  <si>
-    <t>ID: D3F1
-Name: Integridad de Dominio
-Semantic: Indica que los datos representados estén en el dominio, dada su semántica y el dominio de aplicación
-Represents: {BR1}</t>
-  </si>
-  <si>
-    <t>ID: M6
-Name: DatoEnDominioString
-Purpose: Mide si un dato de tipo texto es posible en el dominio, dado un referencial
-Influenced by: {BR1}
-Granularity: celda
-Result domain: {0,1}</t>
-  </si>
-  <si>
-    <t>ID: ME7 
-Name: StatusEnDominio
-Semantic: Dado un dato y un referencial, verifica que el dato esté en el referencial
-Uses: {BR1} 
-Input data types: String, String[]
-Output data types: Boolean 
-Algorithm: verificarStatus(status, posiblesStatus)</t>
-  </si>
-  <si>
     <t>ID: AME45
 Applied to: TMDB_movie_dataset_v11.csv, “status”</t>
   </si>
   <si>
-    <t>ID: D5
-Name: 
-Frescura
-Semantic: Concierne el grado en el que la edad de los datos afecta su uso
-Suggested by: {SR3}</t>
-  </si>
-  <si>
-    <t>ID: D5F1
-Name: Oportunidad
-Semantic: Mide qué tan oportunos son los datos a la hora de su lectura
-Represents: {SR3}</t>
-  </si>
-  <si>
-    <t>ID: M10
-Name: OportunidadPuntaje
-Purpose: Calcula la diferencia en minutos entre la hora en la que se necesitan los datos y la hora en la que se actualizan
-Influenced by: {SR3}
-Granularity: dataset
-Result domain: [0..+inf)</t>
-  </si>
-  <si>
-    <t>ID: ME14 
-Name: Oportunidad8:30am
-Uses: {SR3} 
-Input data types: Object[][]
-Output data types: Integer
-Algorithm: timelinessScore(dataset)</t>
-  </si>
-  <si>
     <t>ID: AME46
 Applied to: TMDB_movie_dataset_v11.csv</t>
   </si>
   <si>
-    <t>ID: M11
-Name: Edad
-Purpose: Calcula el tiempo desde la última actualización de los datos, en una unidad de tiempo dada
-Influenced by: {SR3}
-Granularity: dataset
-Result domain: [0..+inf)</t>
-  </si>
-  <si>
-    <t>ID: ME12 
-Name: EdadMinutos
-Uses: {SR3} 
-Input data types: Object[][]
-Output data types: Integer
-Algorithm: staleness(dataset)</t>
-  </si>
-  <si>
     <t>ID: AME47
 Applied to: TMDB_movie_dataset_v11.csv</t>
   </si>
   <si>
-    <t>ID: D6
-Name: 
-Cantidad de Datos
-Semantic: Concierne la cantidad y el tamaño de los datos almacenados en el SI
-Suggested by: {}</t>
-  </si>
-  <si>
-    <t>ID: D6F1
-Name: Volumen
-Semantic: Mide la cantidad de datos almacenados 
-Represents: {}</t>
-  </si>
-  <si>
-    <t>ID: M12
-Name: CantidadDeFilas
-Purpose: Calcula la cantidad de filas en dataset
-Influenced by: {}
-Granularity: dataset
-Result domain: [0..+inf)</t>
-  </si>
-  <si>
-    <t>ID: ME15 
-Name: countFilas
-Uses: {} 
-Input data types: Object[][]
-Output data types: Integer
-Algorithm: countRows(dataset)</t>
-  </si>
-  <si>
     <t>ID: AME48
 Applied to: TMDB_movie_dataset_v11.csv</t>
-  </si>
-  <si>
-    <t>ID: M13
-Name: Tamaño
-Purpose: Calcula el tamaño del dataset en alguna unidad especificada
-Influenced by: {}
-Granularity: dataset
-Result domain: [0..+inf)</t>
   </si>
   <si>
     <t>ID: ME16 
@@ -258,38 +98,207 @@
     <t>ID: AME49
 Applied to: TMDB_movie_dataset_v11.csv</t>
   </si>
+  <si>
+    <t>ID: D1
+Name: Accuracy
+Semantic: It concerns the correctness and accuracy with which real-world data are represented in an information 
+Suggested by: {BR3}</t>
+  </si>
+  <si>
+    <t>ID: D2
+Name: Completeness
+Semantic: It concerns the proportion of the real world that is represented in the information system.
+Suggested by: {OM1}</t>
+  </si>
+  <si>
+    <t>ID: D3
+Name: Consistency
+Semantic: It concerns the consistency among the records of the information system.
+Suggested by: {BR1}</t>
+  </si>
+  <si>
+    <t>ID: D5
+Name: Freshness
+Semantic: It concerns the degree to which the age of the data affects its use.
+Suggested by: {SR3}</t>
+  </si>
+  <si>
+    <t>ID: D6
+Name: 
+Amount of Data
+Semantic: It concerns the quantity and size of the data stored in the information system.
+Suggested by: {}</t>
+  </si>
+  <si>
+    <t>ID: D6F1
+Name: Volume
+Semantic: It measures the amount of data stored. 
+Represents: {}</t>
+  </si>
+  <si>
+    <t>ID: D1F1
+Name: Syntactic Accuracy
+Semantic: It indicates how free the data are from syntactic errors.
+Represents: {BR3}</t>
+  </si>
+  <si>
+    <t>ID: D2F1
+Name: Density
+Semantic: It indicates how many records contain missing data.
+Represents: {OM1}</t>
+  </si>
+  <si>
+    <t>ID: D3F1
+Name: Domain Integrity
+Semantic: Indicates that the represented data fall within the domain, given their semantics and the application domain.
+Represents: {BR1}</t>
+  </si>
+  <si>
+    <t>ID: D5F1
+Name: Timeliness
+Semantic: It measures how timely the data are at the time of reading.
+Represents: {SR3}</t>
+  </si>
+  <si>
+    <t>ID: M1
+Name: DateFormat
+Purpose: It measures whether the format of a data value representing a date is correct, relative to a specified format.
+It is not measured for missing data.
+Influenced by: {BR3}
+Granularity: cell
+Result domain: {0,1}</t>
+  </si>
+  <si>
+    <t>ID: M4
+Name: NonEmptyRatio
+Purpose: It measures the degree of non-missing values in a column. What is considered missing depends on the method.
+Influenced by: {OM1}
+Granularity: column
+Result domain: [0..1]</t>
+  </si>
+  <si>
+    <t>ID: M6
+Name: DataInDomainString
+Semantic: It measures whether a text-type data value is valid within the domain, given a reference.
+Influenced by: {BR1}
+Granularity: cell
+Result domain: {0,1}</t>
+  </si>
+  <si>
+    <t>ID: M10
+Name: TimelinessScore
+Semantic: It calculates the difference in minutes between the time the data are needed and the time they are updated.
+Influenced by: {SR3}
+Granularity: dataset
+Result domain: [0..+inf)</t>
+  </si>
+  <si>
+    <t>ID: M11
+Name: Staleness
+Semantic: It calculates the time since the data were last updated.
+Influenced by: {SR3}
+Granularity: dataset
+Result domain: [0..+inf)</t>
+  </si>
+  <si>
+    <t>ID: M12
+Name: RowCount
+Purpose: Measures the number of rows in a dataset
+Influenced by: {}
+Granularity: dataset
+Result domain: [0..+inf)</t>
+  </si>
+  <si>
+    <t>ID: M13
+Name: Size
+Purpose: It calculates the size of the dataset in a specified unit.
+Influenced by: {}
+Granularity: dataset
+Result domain: [0..+inf)</t>
+  </si>
+  <si>
+    <t>ID: ME1 
+Name: checkDateFormat
+Uses: {BR3} 
+Input data types: String, String
+Output data types: Boolean 
+Algorithm: checkDateFormat(dato, formato)</t>
+  </si>
+  <si>
+    <t>ID: ME4 
+Name: nonNullRatio
+Uses: {OM1} 
+Input data types: Object[]
+Output data types: Float
+Algorithm: nonNullRatio(column)</t>
+  </si>
+  <si>
+    <t>ID: ME7 
+Name: StatusInDomain
+Uses: {BR1} 
+Input data types: String, String[]
+Output data types: Boolean 
+Algorithm: statusInDomain(status, possibleStatus)</t>
+  </si>
+  <si>
+    <t>ID: ME14 
+Name: Timeliness:30am
+Uses: {SR3} 
+Input data types: Object[][]
+Output data types: Integer
+Algorithm: timelinessScore(dataset)</t>
+  </si>
+  <si>
+    <t>ID: ME12 
+Name: StalenessMinutes
+Uses: {SR3} 
+Input data types: Object[][]
+Output data types: Integer
+Algorithm: staleness(dataset)</t>
+  </si>
+  <si>
+    <t>ID: ME15 
+Name: countRows
+Uses: {} 
+Input data types: Object[][]
+Output data types: Integer
+Algorithm: countRows(dataset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Consolas"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,7 +314,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -319,6 +334,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -333,6 +349,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -347,6 +364,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -358,6 +376,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -366,6 +386,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -374,9 +397,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -391,61 +416,63 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -635,226 +662,239 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="3" max="3" width="21.88"/>
-    <col customWidth="1" min="4" max="4" width="26.0"/>
-    <col customWidth="1" min="5" max="5" width="34.0"/>
+    <col min="1" max="1" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="91.5" customHeight="1">
+    <row r="5" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="6" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="91.15" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="101.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="81" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="81" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="81" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>42</v>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B13:B14"/>
@@ -862,17 +902,9 @@
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D6:D11"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.1" right="0.1" top="0.1"/>
-  <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
 </worksheet>
 </file>